--- a/heart.xlsx
+++ b/heart.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="heart_standardized" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="heart_train" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="heart_test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="heart_standardized" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="heart_train" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="heart_test" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
@@ -76,118 +76,50 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -482,22 +414,22 @@
   </sheetPr>
   <dimension ref="A1:N271"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="G1" view="normal" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100">
-      <selection activeCell="I2" activeCellId="0" pane="topLeft" sqref="I2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="4" width="11.52"/>
-    <col customWidth="1" max="3" min="3" style="4" width="14.69"/>
-    <col customWidth="1" max="4" min="4" style="4" width="18.52"/>
-    <col customWidth="1" max="5" min="5" style="4" width="23.15"/>
-    <col customWidth="1" max="11" min="6" style="4" width="11.52"/>
-    <col customWidth="1" max="12" min="12" style="4" width="12.71"/>
-    <col customWidth="1" max="1025" min="13" style="4" width="11.52"/>
+    <col width="11.52" customWidth="1" style="4" min="1" max="2"/>
+    <col width="14.69" customWidth="1" style="4" min="3" max="3"/>
+    <col width="18.52" customWidth="1" style="4" min="4" max="4"/>
+    <col width="23.15" customWidth="1" style="4" min="5" max="5"/>
+    <col width="11.52" customWidth="1" style="4" min="6" max="11"/>
+    <col width="12.71" customWidth="1" style="4" min="12" max="12"/>
+    <col width="11.52" customWidth="1" style="4" min="13" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="5">
+    <row r="1" ht="12.8" customHeight="1" s="5">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>a</t>
@@ -569,7 +501,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="5">
+    <row r="2" ht="12.8" customHeight="1" s="5">
       <c r="A2" s="6" t="n">
         <v>0.58</v>
       </c>
@@ -613,7 +545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="5">
+    <row r="3" ht="12.8" customHeight="1" s="5">
       <c r="A3" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -657,7 +589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="5">
+    <row r="4" ht="12.8" customHeight="1" s="5">
       <c r="A4" s="6" t="n">
         <v>0.88</v>
       </c>
@@ -701,7 +633,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="5">
+    <row r="5" ht="12.8" customHeight="1" s="5">
       <c r="A5" s="6" t="n">
         <v>0.5</v>
       </c>
@@ -745,7 +677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="5">
+    <row r="6" ht="12.8" customHeight="1" s="5">
       <c r="A6" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -789,7 +721,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="5">
+    <row r="7" ht="12.8" customHeight="1" s="5">
       <c r="A7" s="6" t="n">
         <v>0</v>
       </c>
@@ -833,7 +765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="5">
+    <row r="8" ht="12.8" customHeight="1" s="5">
       <c r="A8" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -877,7 +809,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="5">
+    <row r="9" ht="12.8" customHeight="1" s="5">
       <c r="A9" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -921,7 +853,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="5">
+    <row r="10" ht="12.8" customHeight="1" s="5">
       <c r="A10" s="6" t="n">
         <v>0.75</v>
       </c>
@@ -965,7 +897,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="5">
+    <row r="11" ht="12.8" customHeight="1" s="5">
       <c r="A11" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -1009,7 +941,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="5">
+    <row r="12" ht="12.8" customHeight="1" s="5">
       <c r="A12" s="6" t="n">
         <v>-0.54</v>
       </c>
@@ -1053,7 +985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="5">
+    <row r="13" ht="12.8" customHeight="1" s="5">
       <c r="A13" s="6" t="n">
         <v>-0.21</v>
       </c>
@@ -1097,7 +1029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="5">
+    <row r="14" ht="12.8" customHeight="1" s="5">
       <c r="A14" s="6" t="n">
         <v>-0.42</v>
       </c>
@@ -1141,7 +1073,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="5">
+    <row r="15" ht="12.8" customHeight="1" s="5">
       <c r="A15" s="6" t="n">
         <v>-0.25</v>
       </c>
@@ -1185,7 +1117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="5">
+    <row r="16" ht="12.8" customHeight="1" s="5">
       <c r="A16" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -1229,7 +1161,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="5">
+    <row r="17" ht="12.8" customHeight="1" s="5">
       <c r="A17" s="6" t="n">
         <v>-0.21</v>
       </c>
@@ -1273,7 +1205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="5">
+    <row r="18" ht="12.8" customHeight="1" s="5">
       <c r="A18" s="6" t="n">
         <v>-0.29</v>
       </c>
@@ -1317,7 +1249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="5">
+    <row r="19" ht="12.8" customHeight="1" s="5">
       <c r="A19" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -1361,7 +1293,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="5">
+    <row r="20" ht="12.8" customHeight="1" s="5">
       <c r="A20" s="6" t="n">
         <v>0.75</v>
       </c>
@@ -1405,7 +1337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="5">
+    <row r="21" ht="12.8" customHeight="1" s="5">
       <c r="A21" s="6" t="n">
         <v>0.54</v>
       </c>
@@ -1449,7 +1381,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="5">
+    <row r="22" ht="12.8" customHeight="1" s="5">
       <c r="A22" s="6" t="n">
         <v>-0.67</v>
       </c>
@@ -1493,7 +1425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="5">
+    <row r="23" ht="12.8" customHeight="1" s="5">
       <c r="A23" s="6" t="n">
         <v>-0.46</v>
       </c>
@@ -1537,7 +1469,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="5">
+    <row r="24" ht="12.8" customHeight="1" s="5">
       <c r="A24" s="6" t="n">
         <v>-0.21</v>
       </c>
@@ -1581,7 +1513,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="5">
+    <row r="25" ht="12.8" customHeight="1" s="5">
       <c r="A25" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -1625,7 +1557,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="26" s="5">
+    <row r="26" ht="12.8" customHeight="1" s="5">
       <c r="A26" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -1669,7 +1601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="27" s="5">
+    <row r="27" ht="12.8" customHeight="1" s="5">
       <c r="A27" s="6" t="n">
         <v>-0.29</v>
       </c>
@@ -1713,7 +1645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="28" s="5">
+    <row r="28" ht="12.8" customHeight="1" s="5">
       <c r="A28" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -1757,7 +1689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="29" s="5">
+    <row r="29" ht="12.8" customHeight="1" s="5">
       <c r="A29" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -1801,7 +1733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="30" s="5">
+    <row r="30" ht="12.8" customHeight="1" s="5">
       <c r="A30" s="6" t="n">
         <v>0.5</v>
       </c>
@@ -1845,7 +1777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="31" s="5">
+    <row r="31" ht="12.8" customHeight="1" s="5">
       <c r="A31" s="6" t="n">
         <v>0.42</v>
       </c>
@@ -1889,7 +1821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="32" s="5">
+    <row r="32" ht="12.8" customHeight="1" s="5">
       <c r="A32" s="6" t="n">
         <v>-0.33</v>
       </c>
@@ -1933,7 +1865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="33" s="5">
+    <row r="33" ht="12.8" customHeight="1" s="5">
       <c r="A33" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -1977,7 +1909,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="34" s="5">
+    <row r="34" ht="12.8" customHeight="1" s="5">
       <c r="A34" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -2021,7 +1953,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="35" s="5">
+    <row r="35" ht="12.8" customHeight="1" s="5">
       <c r="A35" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -2065,7 +1997,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="36" s="5">
+    <row r="36" ht="12.8" customHeight="1" s="5">
       <c r="A36" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -2109,7 +2041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="37" s="5">
+    <row r="37" ht="12.8" customHeight="1" s="5">
       <c r="A37" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -2153,7 +2085,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="38" s="5">
+    <row r="38" ht="12.8" customHeight="1" s="5">
       <c r="A38" s="6" t="n">
         <v>0.42</v>
       </c>
@@ -2197,7 +2129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="39" s="5">
+    <row r="39" ht="12.8" customHeight="1" s="5">
       <c r="A39" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -2241,7 +2173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="40" s="5">
+    <row r="40" ht="12.8" customHeight="1" s="5">
       <c r="A40" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -2285,7 +2217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="41" s="5">
+    <row r="41" ht="12.8" customHeight="1" s="5">
       <c r="A41" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -2329,7 +2261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="42" s="5">
+    <row r="42" ht="12.8" customHeight="1" s="5">
       <c r="A42" s="6" t="n">
         <v>0.71</v>
       </c>
@@ -2373,7 +2305,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="43" s="5">
+    <row r="43" ht="12.8" customHeight="1" s="5">
       <c r="A43" s="6" t="n">
         <v>0.96</v>
       </c>
@@ -2417,7 +2349,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="44" s="5">
+    <row r="44" ht="12.8" customHeight="1" s="5">
       <c r="A44" s="6" t="n">
         <v>0.58</v>
       </c>
@@ -2461,7 +2393,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="45" s="5">
+    <row r="45" ht="12.8" customHeight="1" s="5">
       <c r="A45" s="6" t="n">
         <v>-0.33</v>
       </c>
@@ -2505,7 +2437,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="46" s="5">
+    <row r="46" ht="12.8" customHeight="1" s="5">
       <c r="A46" s="6" t="n">
         <v>-0.58</v>
       </c>
@@ -2549,7 +2481,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="47" s="5">
+    <row r="47" ht="12.8" customHeight="1" s="5">
       <c r="A47" s="6" t="n">
         <v>-0.46</v>
       </c>
@@ -2593,7 +2525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="48" s="5">
+    <row r="48" ht="12.8" customHeight="1" s="5">
       <c r="A48" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -2637,7 +2569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="49" s="5">
+    <row r="49" ht="12.8" customHeight="1" s="5">
       <c r="A49" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -2681,7 +2613,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="50" s="5">
+    <row r="50" ht="12.8" customHeight="1" s="5">
       <c r="A50" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -2725,7 +2657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="51" s="5">
+    <row r="51" ht="12.8" customHeight="1" s="5">
       <c r="A51" s="6" t="n">
         <v>-0.46</v>
       </c>
@@ -2769,7 +2701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="52" s="5">
+    <row r="52" ht="12.8" customHeight="1" s="5">
       <c r="A52" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -2813,7 +2745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="53" s="5">
+    <row r="53" ht="12.8" customHeight="1" s="5">
       <c r="A53" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -2857,7 +2789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="54" s="5">
+    <row r="54" ht="12.8" customHeight="1" s="5">
       <c r="A54" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -2901,7 +2833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="55" s="5">
+    <row r="55" ht="12.8" customHeight="1" s="5">
       <c r="A55" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -2945,7 +2877,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="56" s="5">
+    <row r="56" ht="12.8" customHeight="1" s="5">
       <c r="A56" s="6" t="n">
         <v>0.54</v>
       </c>
@@ -2989,7 +2921,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="57" s="5">
+    <row r="57" ht="12.8" customHeight="1" s="5">
       <c r="A57" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -3033,7 +2965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="58" s="5">
+    <row r="58" ht="12.8" customHeight="1" s="5">
       <c r="A58" s="6" t="n">
         <v>-0.13</v>
       </c>
@@ -3077,7 +3009,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="59" s="5">
+    <row r="59" ht="12.8" customHeight="1" s="5">
       <c r="A59" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -3121,7 +3053,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="60" s="5">
+    <row r="60" ht="12.8" customHeight="1" s="5">
       <c r="A60" s="6" t="n">
         <v>-0.17</v>
       </c>
@@ -3165,7 +3097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="61" s="5">
+    <row r="61" ht="12.8" customHeight="1" s="5">
       <c r="A61" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -3209,7 +3141,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="62" s="5">
+    <row r="62" ht="12.8" customHeight="1" s="5">
       <c r="A62" s="6" t="n">
         <v>-0.33</v>
       </c>
@@ -3253,7 +3185,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="63" s="5">
+    <row r="63" ht="12.8" customHeight="1" s="5">
       <c r="A63" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -3297,7 +3229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="64" s="5">
+    <row r="64" ht="12.8" customHeight="1" s="5">
       <c r="A64" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -3341,7 +3273,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="65" s="5">
+    <row r="65" ht="12.8" customHeight="1" s="5">
       <c r="A65" s="6" t="n">
         <v>-0.46</v>
       </c>
@@ -3385,7 +3317,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="66" s="5">
+    <row r="66" ht="12.8" customHeight="1" s="5">
       <c r="A66" s="6" t="n">
         <v>-0.17</v>
       </c>
@@ -3429,7 +3361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="67" s="5">
+    <row r="67" ht="12.8" customHeight="1" s="5">
       <c r="A67" s="6" t="n">
         <v>0.54</v>
       </c>
@@ -3473,7 +3405,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="68" s="5">
+    <row r="68" ht="12.8" customHeight="1" s="5">
       <c r="A68" s="6" t="n">
         <v>0.5</v>
       </c>
@@ -3517,7 +3449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="69" s="5">
+    <row r="69" ht="12.8" customHeight="1" s="5">
       <c r="A69" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -3561,7 +3493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="70" s="5">
+    <row r="70" ht="12.8" customHeight="1" s="5">
       <c r="A70" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -3605,7 +3537,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="71" s="5">
+    <row r="71" ht="12.8" customHeight="1" s="5">
       <c r="A71" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -3649,7 +3581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="72" s="5">
+    <row r="72" ht="12.8" customHeight="1" s="5">
       <c r="A72" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -3693,7 +3625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="73" s="5">
+    <row r="73" ht="12.8" customHeight="1" s="5">
       <c r="A73" s="6" t="n">
         <v>-0.46</v>
       </c>
@@ -3737,7 +3669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="74" s="5">
+    <row r="74" ht="12.8" customHeight="1" s="5">
       <c r="A74" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -3781,7 +3713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="75" s="5">
+    <row r="75" ht="12.8" customHeight="1" s="5">
       <c r="A75" s="6" t="n">
         <v>-0.29</v>
       </c>
@@ -3825,7 +3757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="76" s="5">
+    <row r="76" ht="12.8" customHeight="1" s="5">
       <c r="A76" s="6" t="n">
         <v>0.58</v>
       </c>
@@ -3869,7 +3801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="77" s="5">
+    <row r="77" ht="12.8" customHeight="1" s="5">
       <c r="A77" s="6" t="n">
         <v>-0.79</v>
       </c>
@@ -3913,7 +3845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="78" s="5">
+    <row r="78" ht="12.8" customHeight="1" s="5">
       <c r="A78" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -3957,7 +3889,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="79" s="5">
+    <row r="79" ht="12.8" customHeight="1" s="5">
       <c r="A79" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -4001,7 +3933,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="80" s="5">
+    <row r="80" ht="12.8" customHeight="1" s="5">
       <c r="A80" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -4045,7 +3977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="81" s="5">
+    <row r="81" ht="12.8" customHeight="1" s="5">
       <c r="A81" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -4089,7 +4021,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="82" s="5">
+    <row r="82" ht="12.8" customHeight="1" s="5">
       <c r="A82" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -4133,7 +4065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="83" s="5">
+    <row r="83" ht="12.8" customHeight="1" s="5">
       <c r="A83" s="6" t="n">
         <v>-0.13</v>
       </c>
@@ -4177,7 +4109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="84" s="5">
+    <row r="84" ht="12.8" customHeight="1" s="5">
       <c r="A84" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -4221,7 +4153,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="85" s="5">
+    <row r="85" ht="12.8" customHeight="1" s="5">
       <c r="A85" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -4265,7 +4197,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="86" s="5">
+    <row r="86" ht="12.8" customHeight="1" s="5">
       <c r="A86" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -4309,7 +4241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="87" s="5">
+    <row r="87" ht="12.8" customHeight="1" s="5">
       <c r="A87" s="6" t="n">
         <v>-0.29</v>
       </c>
@@ -4353,7 +4285,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="88" s="5">
+    <row r="88" ht="12.8" customHeight="1" s="5">
       <c r="A88" s="6" t="n">
         <v>-0.33</v>
       </c>
@@ -4397,7 +4329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="89" s="5">
+    <row r="89" ht="12.8" customHeight="1" s="5">
       <c r="A89" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -4441,7 +4373,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="90" s="5">
+    <row r="90" ht="12.8" customHeight="1" s="5">
       <c r="A90" s="6" t="n">
         <v>0.08</v>
       </c>
@@ -4485,7 +4417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="91" s="5">
+    <row r="91" ht="12.8" customHeight="1" s="5">
       <c r="A91" s="6" t="n">
         <v>-0.42</v>
       </c>
@@ -4529,7 +4461,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="92" s="5">
+    <row r="92" ht="12.8" customHeight="1" s="5">
       <c r="A92" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -4573,7 +4505,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="93" s="5">
+    <row r="93" ht="12.8" customHeight="1" s="5">
       <c r="A93" s="6" t="n">
         <v>-0.13</v>
       </c>
@@ -4617,7 +4549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="94" s="5">
+    <row r="94" ht="12.8" customHeight="1" s="5">
       <c r="A94" s="6" t="n">
         <v>0</v>
       </c>
@@ -4661,7 +4593,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="95" s="5">
+    <row r="95" ht="12.8" customHeight="1" s="5">
       <c r="A95" s="6" t="n">
         <v>-0.33</v>
       </c>
@@ -4705,7 +4637,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="96" s="5">
+    <row r="96" ht="12.8" customHeight="1" s="5">
       <c r="A96" s="6" t="n">
         <v>0.67</v>
       </c>
@@ -4749,7 +4681,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="97" s="5">
+    <row r="97" ht="12.8" customHeight="1" s="5">
       <c r="A97" s="6" t="n">
         <v>0.63</v>
       </c>
@@ -4793,7 +4725,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="98" s="5">
+    <row r="98" ht="12.8" customHeight="1" s="5">
       <c r="A98" s="6" t="n">
         <v>-0.79</v>
       </c>
@@ -4837,7 +4769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="99" s="5">
+    <row r="99" ht="12.8" customHeight="1" s="5">
       <c r="A99" s="6" t="n">
         <v>-0.13</v>
       </c>
@@ -4881,7 +4813,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="100" s="5">
+    <row r="100" ht="12.8" customHeight="1" s="5">
       <c r="A100" s="6" t="n">
         <v>-0.46</v>
       </c>
@@ -4925,7 +4857,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="101" s="5">
+    <row r="101" ht="12.8" customHeight="1" s="5">
       <c r="A101" s="6" t="n">
         <v>-0.46</v>
       </c>
@@ -4969,7 +4901,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="102" s="5">
+    <row r="102" ht="12.8" customHeight="1" s="5">
       <c r="A102" s="6" t="n">
         <v>0</v>
       </c>
@@ -5013,7 +4945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="103" s="5">
+    <row r="103" ht="12.8" customHeight="1" s="5">
       <c r="A103" s="6" t="n">
         <v>-0.42</v>
       </c>
@@ -5057,7 +4989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="104" s="5">
+    <row r="104" ht="12.8" customHeight="1" s="5">
       <c r="A104" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -5101,7 +5033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="105" s="5">
+    <row r="105" ht="12.8" customHeight="1" s="5">
       <c r="A105" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -5145,7 +5077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="106" s="5">
+    <row r="106" ht="12.8" customHeight="1" s="5">
       <c r="A106" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -5189,7 +5121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="107" s="5">
+    <row r="107" ht="12.8" customHeight="1" s="5">
       <c r="A107" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -5233,7 +5165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="108" s="5">
+    <row r="108" ht="12.8" customHeight="1" s="5">
       <c r="A108" s="6" t="n">
         <v>-0.21</v>
       </c>
@@ -5277,7 +5209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="109" s="5">
+    <row r="109" ht="12.8" customHeight="1" s="5">
       <c r="A109" s="6" t="n">
         <v>0.08</v>
       </c>
@@ -5321,7 +5253,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="110" s="5">
+    <row r="110" ht="12.8" customHeight="1" s="5">
       <c r="A110" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -5365,7 +5297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="111" s="5">
+    <row r="111" ht="12.8" customHeight="1" s="5">
       <c r="A111" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -5409,7 +5341,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="112" s="5">
+    <row r="112" ht="12.8" customHeight="1" s="5">
       <c r="A112" s="6" t="n">
         <v>0.67</v>
       </c>
@@ -5453,7 +5385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="113" s="5">
+    <row r="113" ht="12.8" customHeight="1" s="5">
       <c r="A113" s="6" t="n">
         <v>0.63</v>
       </c>
@@ -5497,7 +5429,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="114" s="5">
+    <row r="114" ht="12.8" customHeight="1" s="5">
       <c r="A114" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -5541,7 +5473,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="115" s="5">
+    <row r="115" ht="12.8" customHeight="1" s="5">
       <c r="A115" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -5585,7 +5517,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="116" s="5">
+    <row r="116" ht="12.8" customHeight="1" s="5">
       <c r="A116" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -5629,7 +5561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="117" s="5">
+    <row r="117" ht="12.8" customHeight="1" s="5">
       <c r="A117" s="6" t="n">
         <v>-0.67</v>
       </c>
@@ -5673,7 +5605,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="118" s="5">
+    <row r="118" ht="12.8" customHeight="1" s="5">
       <c r="A118" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -5717,7 +5649,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="119" s="5">
+    <row r="119" ht="12.8" customHeight="1" s="5">
       <c r="A119" s="6" t="n">
         <v>-0.42</v>
       </c>
@@ -5761,7 +5693,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="120" s="5">
+    <row r="120" ht="12.8" customHeight="1" s="5">
       <c r="A120" s="6" t="n">
         <v>-1</v>
       </c>
@@ -5805,7 +5737,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="121" s="5">
+    <row r="121" ht="12.8" customHeight="1" s="5">
       <c r="A121" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -5849,7 +5781,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="122" s="5">
+    <row r="122" ht="12.8" customHeight="1" s="5">
       <c r="A122" s="6" t="n">
         <v>0.42</v>
       </c>
@@ -5893,7 +5825,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="123" s="5">
+    <row r="123" ht="12.8" customHeight="1" s="5">
       <c r="A123" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -5937,7 +5869,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="124" s="5">
+    <row r="124" ht="12.8" customHeight="1" s="5">
       <c r="A124" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -5981,7 +5913,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="125" s="5">
+    <row r="125" ht="12.8" customHeight="1" s="5">
       <c r="A125" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -6025,7 +5957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="126" s="5">
+    <row r="126" ht="12.8" customHeight="1" s="5">
       <c r="A126" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -6069,7 +6001,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="127" s="5">
+    <row r="127" ht="12.8" customHeight="1" s="5">
       <c r="A127" s="6" t="n">
         <v>-0.75</v>
       </c>
@@ -6113,7 +6045,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="128" s="5">
+    <row r="128" ht="12.8" customHeight="1" s="5">
       <c r="A128" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -6157,7 +6089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="129" s="5">
+    <row r="129" ht="12.8" customHeight="1" s="5">
       <c r="A129" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -6201,7 +6133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="130" s="5">
+    <row r="130" ht="12.8" customHeight="1" s="5">
       <c r="A130" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -6245,7 +6177,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="131" s="5">
+    <row r="131" ht="12.8" customHeight="1" s="5">
       <c r="A131" s="6" t="n">
         <v>-0.33</v>
       </c>
@@ -6289,7 +6221,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="132" s="5">
+    <row r="132" ht="12.8" customHeight="1" s="5">
       <c r="A132" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -6333,7 +6265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="133" s="5">
+    <row r="133" ht="12.8" customHeight="1" s="5">
       <c r="A133" s="6" t="n">
         <v>0</v>
       </c>
@@ -6377,7 +6309,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="134" s="5">
+    <row r="134" ht="12.8" customHeight="1" s="5">
       <c r="A134" s="6" t="n">
         <v>-0.25</v>
       </c>
@@ -6421,7 +6353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="135" s="5">
+    <row r="135" ht="12.8" customHeight="1" s="5">
       <c r="A135" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -6465,7 +6397,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="136" s="5">
+    <row r="136" ht="12.8" customHeight="1" s="5">
       <c r="A136" s="6" t="n">
         <v>-0.58</v>
       </c>
@@ -6509,7 +6441,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="137" s="5">
+    <row r="137" ht="12.8" customHeight="1" s="5">
       <c r="A137" s="6" t="n">
         <v>0</v>
       </c>
@@ -6553,7 +6485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="138" s="5">
+    <row r="138" ht="12.8" customHeight="1" s="5">
       <c r="A138" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -6597,7 +6529,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="139" s="5">
+    <row r="139" ht="12.8" customHeight="1" s="5">
       <c r="A139" s="6" t="n">
         <v>0.5</v>
       </c>
@@ -6641,7 +6573,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="140" s="5">
+    <row r="140" ht="12.8" customHeight="1" s="5">
       <c r="A140" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -6685,7 +6617,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="141" s="5">
+    <row r="141" ht="12.8" customHeight="1" s="5">
       <c r="A141" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -6729,7 +6661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="142" s="5">
+    <row r="142" ht="12.8" customHeight="1" s="5">
       <c r="A142" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -6773,7 +6705,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="143" s="5">
+    <row r="143" ht="12.8" customHeight="1" s="5">
       <c r="A143" s="6" t="n">
         <v>0.75</v>
       </c>
@@ -6817,7 +6749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="144" s="5">
+    <row r="144" ht="12.8" customHeight="1" s="5">
       <c r="A144" s="6" t="n">
         <v>0.33</v>
       </c>
@@ -6861,7 +6793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="145" s="5">
+    <row r="145" ht="12.8" customHeight="1" s="5">
       <c r="A145" s="6" t="n">
         <v>-0.42</v>
       </c>
@@ -6905,7 +6837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="146" s="5">
+    <row r="146" ht="12.8" customHeight="1" s="5">
       <c r="A146" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -6949,7 +6881,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="147" s="5">
+    <row r="147" ht="12.8" customHeight="1" s="5">
       <c r="A147" s="6" t="n">
         <v>-0.17</v>
       </c>
@@ -6993,7 +6925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="148" s="5">
+    <row r="148" ht="12.8" customHeight="1" s="5">
       <c r="A148" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -7037,7 +6969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="149" s="5">
+    <row r="149" ht="12.8" customHeight="1" s="5">
       <c r="A149" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -7081,7 +7013,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="150" s="5">
+    <row r="150" ht="12.8" customHeight="1" s="5">
       <c r="A150" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -7125,7 +7057,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="151" s="5">
+    <row r="151" ht="12.8" customHeight="1" s="5">
       <c r="A151" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -7169,7 +7101,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="152" s="5">
+    <row r="152" ht="12.8" customHeight="1" s="5">
       <c r="A152" s="6" t="n">
         <v>0.71</v>
       </c>
@@ -7213,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="153" s="5">
+    <row r="153" ht="12.8" customHeight="1" s="5">
       <c r="A153" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -7257,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="154" s="5">
+    <row r="154" ht="12.8" customHeight="1" s="5">
       <c r="A154" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -7301,7 +7233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="155" s="5">
+    <row r="155" ht="12.8" customHeight="1" s="5">
       <c r="A155" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -7345,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="156" s="5">
+    <row r="156" ht="12.8" customHeight="1" s="5">
       <c r="A156" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -7389,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="157" s="5">
+    <row r="157" ht="12.8" customHeight="1" s="5">
       <c r="A157" s="6" t="n">
         <v>0.42</v>
       </c>
@@ -7433,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="158" s="5">
+    <row r="158" ht="12.8" customHeight="1" s="5">
       <c r="A158" s="6" t="n">
         <v>0.33</v>
       </c>
@@ -7477,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="159" s="5">
+    <row r="159" ht="12.8" customHeight="1" s="5">
       <c r="A159" s="6" t="n">
         <v>-0.29</v>
       </c>
@@ -7521,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="160" s="5">
+    <row r="160" ht="12.8" customHeight="1" s="5">
       <c r="A160" s="6" t="n">
         <v>0</v>
       </c>
@@ -7565,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="161" s="5">
+    <row r="161" ht="12.8" customHeight="1" s="5">
       <c r="A161" s="6" t="n">
         <v>0.58</v>
       </c>
@@ -7609,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="162" s="5">
+    <row r="162" ht="12.8" customHeight="1" s="5">
       <c r="A162" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -7653,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="163" s="5">
+    <row r="163" ht="12.8" customHeight="1" s="5">
       <c r="A163" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -7697,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="164" s="5">
+    <row r="164" ht="12.8" customHeight="1" s="5">
       <c r="A164" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -7741,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="165" s="5">
+    <row r="165" ht="12.8" customHeight="1" s="5">
       <c r="A165" s="6" t="n">
         <v>-0.13</v>
       </c>
@@ -7785,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="166" s="5">
+    <row r="166" ht="12.8" customHeight="1" s="5">
       <c r="A166" s="6" t="n">
         <v>-0.21</v>
       </c>
@@ -7829,7 +7761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="167" s="5">
+    <row r="167" ht="12.8" customHeight="1" s="5">
       <c r="A167" s="6" t="n">
         <v>0.33</v>
       </c>
@@ -7873,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="168" s="5">
+    <row r="168" ht="12.8" customHeight="1" s="5">
       <c r="A168" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -7917,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="169" s="5">
+    <row r="169" ht="12.8" customHeight="1" s="5">
       <c r="A169" s="6" t="n">
         <v>-0.54</v>
       </c>
@@ -7961,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="170" s="5">
+    <row r="170" ht="12.8" customHeight="1" s="5">
       <c r="A170" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -8005,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="171" s="5">
+    <row r="171" ht="12.8" customHeight="1" s="5">
       <c r="A171" s="6" t="n">
         <v>-0.17</v>
       </c>
@@ -8049,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="172" s="5">
+    <row r="172" ht="12.8" customHeight="1" s="5">
       <c r="A172" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -8093,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="173" s="5">
+    <row r="173" ht="12.8" customHeight="1" s="5">
       <c r="A173" s="6" t="n">
         <v>0.54</v>
       </c>
@@ -8137,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="174" s="5">
+    <row r="174" ht="12.8" customHeight="1" s="5">
       <c r="A174" s="6" t="n">
         <v>0.5</v>
       </c>
@@ -8181,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="175" s="5">
+    <row r="175" ht="12.8" customHeight="1" s="5">
       <c r="A175" s="6" t="n">
         <v>-0.46</v>
       </c>
@@ -8225,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="176" s="5">
+    <row r="176" ht="12.8" customHeight="1" s="5">
       <c r="A176" s="6" t="n">
         <v>0.33</v>
       </c>
@@ -8269,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="177" s="5">
+    <row r="177" ht="12.8" customHeight="1" s="5">
       <c r="A177" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -8313,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="178" s="5">
+    <row r="178" ht="12.8" customHeight="1" s="5">
       <c r="A178" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -8357,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="179" s="5">
+    <row r="179" ht="12.8" customHeight="1" s="5">
       <c r="A179" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -8401,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="180" s="5">
+    <row r="180" ht="12.8" customHeight="1" s="5">
       <c r="A180" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -8445,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="181" s="5">
+    <row r="181" ht="12.8" customHeight="1" s="5">
       <c r="A181" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -8489,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="182" s="5">
+    <row r="182" ht="12.8" customHeight="1" s="5">
       <c r="A182" s="6" t="n">
         <v>-0.25</v>
       </c>
@@ -8533,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="183" s="5">
+    <row r="183" ht="12.8" customHeight="1" s="5">
       <c r="A183" s="6" t="n">
         <v>0.33</v>
       </c>
@@ -8577,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="184" s="5">
+    <row r="184" ht="12.8" customHeight="1" s="5">
       <c r="A184" s="6" t="n">
         <v>-0.33</v>
       </c>
@@ -8621,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="185" s="5">
+    <row r="185" ht="12.8" customHeight="1" s="5">
       <c r="A185" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -8665,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="186" s="5">
+    <row r="186" ht="12.8" customHeight="1" s="5">
       <c r="A186" s="6" t="n">
         <v>-0.75</v>
       </c>
@@ -8709,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="187" s="5">
+    <row r="187" ht="12.8" customHeight="1" s="5">
       <c r="A187" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -8753,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="188" s="5">
+    <row r="188" ht="12.8" customHeight="1" s="5">
       <c r="A188" s="6" t="n">
         <v>-0.13</v>
       </c>
@@ -8797,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="189" s="5">
+    <row r="189" ht="12.8" customHeight="1" s="5">
       <c r="A189" s="6" t="n">
         <v>0.33</v>
       </c>
@@ -8841,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="190" s="5">
+    <row r="190" ht="12.8" customHeight="1" s="5">
       <c r="A190" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -8885,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="191" s="5">
+    <row r="191" ht="12.8" customHeight="1" s="5">
       <c r="A191" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -8929,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="192" s="5">
+    <row r="192" ht="12.8" customHeight="1" s="5">
       <c r="A192" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -8973,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="193" s="5">
+    <row r="193" ht="12.8" customHeight="1" s="5">
       <c r="A193" s="6" t="n">
         <v>-0.25</v>
       </c>
@@ -9017,7 +8949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="194" s="5">
+    <row r="194" ht="12.8" customHeight="1" s="5">
       <c r="A194" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -9061,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="195" s="5">
+    <row r="195" ht="12.8" customHeight="1" s="5">
       <c r="A195" s="6" t="n">
         <v>0.58</v>
       </c>
@@ -9105,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="196" s="5">
+    <row r="196" ht="12.8" customHeight="1" s="5">
       <c r="A196" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -9149,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="197" s="5">
+    <row r="197" ht="12.8" customHeight="1" s="5">
       <c r="A197" s="6" t="n">
         <v>0.42</v>
       </c>
@@ -9193,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="198" s="5">
+    <row r="198" ht="12.8" customHeight="1" s="5">
       <c r="A198" s="6" t="n">
         <v>-0.21</v>
       </c>
@@ -9237,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="199" s="5">
+    <row r="199" ht="12.8" customHeight="1" s="5">
       <c r="A199" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -9281,7 +9213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="200" s="5">
+    <row r="200" ht="12.8" customHeight="1" s="5">
       <c r="A200" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -9325,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="201" s="5">
+    <row r="201" ht="12.8" customHeight="1" s="5">
       <c r="A201" s="6" t="n">
         <v>0.08</v>
       </c>
@@ -9369,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="202" s="5">
+    <row r="202" ht="12.8" customHeight="1" s="5">
       <c r="A202" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -9413,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="203" s="5">
+    <row r="203" ht="12.8" customHeight="1" s="5">
       <c r="A203" s="6" t="n">
         <v>-0.29</v>
       </c>
@@ -9457,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="204" s="5">
+    <row r="204" ht="12.8" customHeight="1" s="5">
       <c r="A204" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -9501,7 +9433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="205" s="5">
+    <row r="205" ht="12.8" customHeight="1" s="5">
       <c r="A205" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -9545,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="206" s="5">
+    <row r="206" ht="12.8" customHeight="1" s="5">
       <c r="A206" s="6" t="n">
         <v>-0.17</v>
       </c>
@@ -9589,7 +9521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="207" s="5">
+    <row r="207" ht="12.8" customHeight="1" s="5">
       <c r="A207" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -9633,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="208" s="5">
+    <row r="208" ht="12.8" customHeight="1" s="5">
       <c r="A208" s="6" t="n">
         <v>0.17</v>
       </c>
@@ -9677,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="209" s="5">
+    <row r="209" ht="12.8" customHeight="1" s="5">
       <c r="A209" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -9721,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="210" s="5">
+    <row r="210" ht="12.8" customHeight="1" s="5">
       <c r="A210" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -9765,7 +9697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="211" s="5">
+    <row r="211" ht="12.8" customHeight="1" s="5">
       <c r="A211" s="6" t="n">
         <v>0.42</v>
       </c>
@@ -9809,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="212" s="5">
+    <row r="212" ht="12.8" customHeight="1" s="5">
       <c r="A212" s="6" t="n">
         <v>0.54</v>
       </c>
@@ -9853,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="213" s="5">
+    <row r="213" ht="12.8" customHeight="1" s="5">
       <c r="A213" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -9897,7 +9829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="214" s="5">
+    <row r="214" ht="12.8" customHeight="1" s="5">
       <c r="A214" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -9941,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="215" s="5">
+    <row r="215" ht="12.8" customHeight="1" s="5">
       <c r="A215" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -9985,7 +9917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="216" s="5">
+    <row r="216" ht="12.8" customHeight="1" s="5">
       <c r="A216" s="6" t="n">
         <v>-0.13</v>
       </c>
@@ -10029,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="217" s="5">
+    <row r="217" ht="12.8" customHeight="1" s="5">
       <c r="A217" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -10073,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="218" s="5">
+    <row r="218" ht="12.8" customHeight="1" s="5">
       <c r="A218" s="6" t="n">
         <v>0</v>
       </c>
@@ -10117,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="219" s="5">
+    <row r="219" ht="12.8" customHeight="1" s="5">
       <c r="A219" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -10161,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="220" s="5">
+    <row r="220" ht="12.8" customHeight="1" s="5">
       <c r="A220" s="6" t="n">
         <v>-0.54</v>
       </c>
@@ -10205,7 +10137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="221" s="5">
+    <row r="221" ht="12.8" customHeight="1" s="5">
       <c r="A221" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -10249,7 +10181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="222" s="5">
+    <row r="222" ht="12.8" customHeight="1" s="5">
       <c r="A222" s="6" t="n">
         <v>0.08</v>
       </c>
@@ -10293,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="223" s="5">
+    <row r="223" ht="12.8" customHeight="1" s="5">
       <c r="A223" s="6" t="n">
         <v>0.54</v>
       </c>
@@ -10337,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="224" s="5">
+    <row r="224" ht="12.8" customHeight="1" s="5">
       <c r="A224" s="6" t="n">
         <v>-0.63</v>
       </c>
@@ -10381,7 +10313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="225" s="5">
+    <row r="225" ht="12.8" customHeight="1" s="5">
       <c r="A225" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -10425,7 +10357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="226" s="5">
+    <row r="226" ht="12.8" customHeight="1" s="5">
       <c r="A226" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -10469,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="227" s="5">
+    <row r="227" ht="12.8" customHeight="1" s="5">
       <c r="A227" s="6" t="n">
         <v>0.5</v>
       </c>
@@ -10513,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="228" s="5">
+    <row r="228" ht="12.8" customHeight="1" s="5">
       <c r="A228" s="6" t="n">
         <v>0.67</v>
       </c>
@@ -10557,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="229" s="5">
+    <row r="229" ht="12.8" customHeight="1" s="5">
       <c r="A229" s="6" t="n">
         <v>0.58</v>
       </c>
@@ -10601,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="230" s="5">
+    <row r="230" ht="12.8" customHeight="1" s="5">
       <c r="A230" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -10645,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="231" s="5">
+    <row r="231" ht="12.8" customHeight="1" s="5">
       <c r="A231" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -10689,7 +10621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="232" s="5">
+    <row r="232" ht="12.8" customHeight="1" s="5">
       <c r="A232" s="6" t="n">
         <v>-0.29</v>
       </c>
@@ -10733,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="233" s="5">
+    <row r="233" ht="12.8" customHeight="1" s="5">
       <c r="A233" s="6" t="n">
         <v>0.58</v>
       </c>
@@ -10777,7 +10709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="234" s="5">
+    <row r="234" ht="12.8" customHeight="1" s="5">
       <c r="A234" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -10821,7 +10753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="235" s="5">
+    <row r="235" ht="12.8" customHeight="1" s="5">
       <c r="A235" s="6" t="n">
         <v>-0.5</v>
       </c>
@@ -10865,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="236" s="5">
+    <row r="236" ht="12.8" customHeight="1" s="5">
       <c r="A236" s="6" t="n">
         <v>0.13</v>
       </c>
@@ -10909,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="237" s="5">
+    <row r="237" ht="12.8" customHeight="1" s="5">
       <c r="A237" s="6" t="n">
         <v>0.71</v>
       </c>
@@ -10953,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="238" s="5">
+    <row r="238" ht="12.8" customHeight="1" s="5">
       <c r="A238" s="6" t="n">
         <v>0.71</v>
       </c>
@@ -10997,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="239" s="5">
+    <row r="239" ht="12.8" customHeight="1" s="5">
       <c r="A239" s="6" t="n">
         <v>-0.75</v>
       </c>
@@ -11041,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="240" s="5">
+    <row r="240" ht="12.8" customHeight="1" s="5">
       <c r="A240" s="6" t="n">
         <v>1</v>
       </c>
@@ -11085,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="241" s="5">
+    <row r="241" ht="12.8" customHeight="1" s="5">
       <c r="A241" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -11129,7 +11061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="242" s="5">
+    <row r="242" ht="12.8" customHeight="1" s="5">
       <c r="A242" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -11173,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="243" s="5">
+    <row r="243" ht="12.8" customHeight="1" s="5">
       <c r="A243" s="6" t="n">
         <v>-0.08</v>
       </c>
@@ -11217,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="244" s="5">
+    <row r="244" ht="12.8" customHeight="1" s="5">
       <c r="A244" s="6" t="n">
         <v>0.08</v>
       </c>
@@ -11261,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="245" s="5">
+    <row r="245" ht="12.8" customHeight="1" s="5">
       <c r="A245" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -11305,7 +11237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="246" s="5">
+    <row r="246" ht="12.8" customHeight="1" s="5">
       <c r="A246" s="6" t="n">
         <v>0.25</v>
       </c>
@@ -11349,7 +11281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="247" s="5">
+    <row r="247" ht="12.8" customHeight="1" s="5">
       <c r="A247" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -11393,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="248" s="5">
+    <row r="248" ht="12.8" customHeight="1" s="5">
       <c r="A248" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -11437,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="249" s="5">
+    <row r="249" ht="12.8" customHeight="1" s="5">
       <c r="A249" s="6" t="n">
         <v>0.5</v>
       </c>
@@ -11481,7 +11413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="250" s="5">
+    <row r="250" ht="12.8" customHeight="1" s="5">
       <c r="A250" s="6" t="n">
         <v>0.42</v>
       </c>
@@ -11525,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="251" s="5">
+    <row r="251" ht="12.8" customHeight="1" s="5">
       <c r="A251" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -11569,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="252" s="5">
+    <row r="252" ht="12.8" customHeight="1" s="5">
       <c r="A252" s="6" t="n">
         <v>-0.42</v>
       </c>
@@ -11613,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="253" s="5">
+    <row r="253" ht="12.8" customHeight="1" s="5">
       <c r="A253" s="6" t="n">
         <v>0.33</v>
       </c>
@@ -11657,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="254" s="5">
+    <row r="254" ht="12.8" customHeight="1" s="5">
       <c r="A254" s="6" t="n">
         <v>-0.58</v>
       </c>
@@ -11701,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="255" s="5">
+    <row r="255" ht="12.8" customHeight="1" s="5">
       <c r="A255" s="6" t="n">
         <v>-0.04</v>
       </c>
@@ -11745,7 +11677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="256" s="5">
+    <row r="256" ht="12.8" customHeight="1" s="5">
       <c r="A256" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -11789,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="257" s="5">
+    <row r="257" ht="12.8" customHeight="1" s="5">
       <c r="A257" s="6" t="n">
         <v>-0.42</v>
       </c>
@@ -11833,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="258" s="5">
+    <row r="258" ht="12.8" customHeight="1" s="5">
       <c r="A258" s="6" t="n">
         <v>0.63</v>
       </c>
@@ -11877,7 +11809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="259" s="5">
+    <row r="259" ht="12.8" customHeight="1" s="5">
       <c r="A259" s="6" t="n">
         <v>0.38</v>
       </c>
@@ -11921,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="260" s="5">
+    <row r="260" ht="12.8" customHeight="1" s="5">
       <c r="A260" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -11965,7 +11897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="261" s="5">
+    <row r="261" ht="12.8" customHeight="1" s="5">
       <c r="A261" s="6" t="n">
         <v>0.5</v>
       </c>
@@ -12009,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="262" s="5">
+    <row r="262" ht="12.8" customHeight="1" s="5">
       <c r="A262" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -12053,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="263" s="5">
+    <row r="263" ht="12.8" customHeight="1" s="5">
       <c r="A263" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -12097,7 +12029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="264" s="5">
+    <row r="264" ht="12.8" customHeight="1" s="5">
       <c r="A264" s="6" t="n">
         <v>0.04</v>
       </c>
@@ -12141,7 +12073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="265" s="5">
+    <row r="265" ht="12.8" customHeight="1" s="5">
       <c r="A265" s="6" t="n">
         <v>-0.38</v>
       </c>
@@ -12185,7 +12117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="266" s="5">
+    <row r="266" ht="12.8" customHeight="1" s="5">
       <c r="A266" s="6" t="n">
         <v>0.08</v>
       </c>
@@ -12229,7 +12161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="267" s="5">
+    <row r="267" ht="12.8" customHeight="1" s="5">
       <c r="A267" s="6" t="n">
         <v>0.46</v>
       </c>
@@ -12273,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="268" s="5">
+    <row r="268" ht="12.8" customHeight="1" s="5">
       <c r="A268" s="6" t="n">
         <v>0.29</v>
       </c>
@@ -12317,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="269" s="5">
+    <row r="269" ht="12.8" customHeight="1" s="5">
       <c r="A269" s="6" t="n">
         <v>0.21</v>
       </c>
@@ -12361,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="270" s="5">
+    <row r="270" ht="12.8" customHeight="1" s="5">
       <c r="A270" s="6" t="n">
         <v>-0.21</v>
       </c>
@@ -12405,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="271" s="5">
+    <row r="271" ht="12.8" customHeight="1" s="5">
       <c r="A271" s="6" t="n">
         <v>0.58</v>
       </c>
@@ -12450,10 +12382,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -22708,7 +22640,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -25342,6 +25274,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>